--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="10155"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="interact" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
     <t>models/heroes/shopkeeper_dire/shopkeeper_dire.vmdl</t>
   </si>
   <si>
-    <t>public_shop_range</t>
+    <t>public_npc_interact</t>
   </si>
   <si>
     <t>DOTA_UNIT_CAP_MOVE_GROUND</t>
@@ -1492,8 +1492,8 @@
   <sheetPr/>
   <dimension ref="A1:AC9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1768,7 +1768,7 @@
       <c r="U4" s="17">
         <v>280</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="V4" s="13" t="s">
         <v>34</v>
       </c>
       <c r="W4" s="17">
@@ -1991,7 +1991,7 @@
       <c r="U7" s="17">
         <v>280</v>
       </c>
-      <c r="V7" s="17" t="s">
+      <c r="V7" s="13" t="s">
         <v>34</v>
       </c>
       <c r="W7" s="17">
@@ -2068,7 +2068,7 @@
       <c r="U8" s="17">
         <v>280</v>
       </c>
-      <c r="V8" s="17" t="s">
+      <c r="V8" s="13" t="s">
         <v>34</v>
       </c>
       <c r="W8" s="17">
@@ -2135,7 +2135,7 @@
       <c r="U9" s="17">
         <v>280</v>
       </c>
-      <c r="V9" s="17" t="s">
+      <c r="V9" s="13" t="s">
         <v>34</v>
       </c>
       <c r="W9" s="17">

--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="13395"/>
   </bookViews>
   <sheets>
     <sheet name="interact" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
   <si>
     <t>主键</t>
   </si>
@@ -35,6 +35,9 @@
     <t>出现难度</t>
   </si>
   <si>
+    <t>是否启用</t>
+  </si>
+  <si>
     <t>护甲值</t>
   </si>
   <si>
@@ -66,6 +69,9 @@
   </si>
   <si>
     <t>Unlocking</t>
+  </si>
+  <si>
+    <t>is_enable</t>
   </si>
   <si>
     <t>StatusHealth</t>
@@ -714,21 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF5A5A5A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF5A5A5A"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -759,6 +750,21 @@
       <right/>
       <top style="thin">
         <color rgb="FF5A5A5A"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF5A5A5A"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF5A5A5A"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF5A5A5A"/>
@@ -1106,37 +1112,37 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="178" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="178" fontId="3" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="178" fontId="3" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1490,10 +1496,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AC9"/>
+  <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1501,29 +1507,30 @@
     <col min="1" max="1" width="28.8416666666667" customWidth="1"/>
     <col min="2" max="2" width="15.0083333333333" customWidth="1"/>
     <col min="3" max="3" width="25.5" customWidth="1"/>
-    <col min="4" max="4" width="8.34166666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.5083333333333" customWidth="1"/>
-    <col min="6" max="6" width="16.175" customWidth="1"/>
-    <col min="7" max="7" width="21.675" customWidth="1"/>
-    <col min="8" max="8" width="50.625" customWidth="1"/>
-    <col min="9" max="9" width="14.3416666666667" customWidth="1"/>
-    <col min="10" max="10" width="23.8416666666667" customWidth="1"/>
-    <col min="11" max="15" width="10.0083333333333" customWidth="1"/>
-    <col min="16" max="17" width="9.00833333333333" customWidth="1"/>
-    <col min="18" max="19" width="3.625" customWidth="1"/>
-    <col min="20" max="20" width="15.175" customWidth="1"/>
-    <col min="21" max="21" width="21.0083333333333" customWidth="1"/>
-    <col min="22" max="22" width="21.675" customWidth="1"/>
-    <col min="23" max="23" width="21.8416666666667" customWidth="1"/>
-    <col min="24" max="24" width="24.3416666666667" customWidth="1"/>
-    <col min="25" max="25" width="32.5083333333333" customWidth="1"/>
-    <col min="26" max="26" width="29.0083333333333" customWidth="1"/>
-    <col min="27" max="27" width="14.8416666666667" customWidth="1"/>
-    <col min="28" max="28" width="13.175" customWidth="1"/>
-    <col min="29" max="29" width="27.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="15.625" customWidth="1"/>
+    <col min="5" max="5" width="8.34166666666667" customWidth="1"/>
+    <col min="6" max="6" width="10.5083333333333" customWidth="1"/>
+    <col min="7" max="7" width="16.175" customWidth="1"/>
+    <col min="8" max="8" width="21.675" customWidth="1"/>
+    <col min="9" max="9" width="50.625" customWidth="1"/>
+    <col min="10" max="10" width="14.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="23.8416666666667" customWidth="1"/>
+    <col min="12" max="16" width="10.0083333333333" customWidth="1"/>
+    <col min="17" max="18" width="9.00833333333333" customWidth="1"/>
+    <col min="19" max="20" width="3.625" customWidth="1"/>
+    <col min="21" max="21" width="15.175" customWidth="1"/>
+    <col min="22" max="22" width="21.0083333333333" customWidth="1"/>
+    <col min="23" max="23" width="21.675" customWidth="1"/>
+    <col min="24" max="24" width="21.8416666666667" customWidth="1"/>
+    <col min="25" max="25" width="24.3416666666667" customWidth="1"/>
+    <col min="26" max="26" width="32.5083333333333" customWidth="1"/>
+    <col min="27" max="27" width="29.0083333333333" customWidth="1"/>
+    <col min="28" max="28" width="14.8416666666667" customWidth="1"/>
+    <col min="29" max="29" width="13.175" customWidth="1"/>
+    <col min="30" max="30" width="27.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1531,160 +1538,168 @@
       <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="5"/>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="24"/>
-      <c r="T1" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="U1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="V1" s="5"/>
-      <c r="W1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="X1" s="25" t="s">
+      <c r="W1" s="5"/>
+      <c r="X1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="5" t="s">
+      <c r="Y1" s="28" t="s">
         <v>9</v>
       </c>
       <c r="Z1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="5"/>
+      <c r="AA1" s="5" t="s">
+        <v>11</v>
+      </c>
       <c r="AB1" s="5"/>
-      <c r="AC1" s="20"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="20"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
+        <v>15</v>
+      </c>
       <c r="H2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="9">
+        <v>18</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="9">
         <v>1</v>
       </c>
-      <c r="L2" s="9">
+      <c r="M2" s="9">
         <v>2</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>3</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>4</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P2" s="9">
         <v>5</v>
       </c>
-      <c r="P2" s="21">
+      <c r="Q2" s="24">
         <v>6</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="R2" s="25">
         <v>7</v>
       </c>
-      <c r="R2" s="27" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" s="28" t="s">
-        <v>18</v>
-      </c>
-      <c r="T2" s="9" t="s">
-        <v>19</v>
+      <c r="S2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="T2" s="27" t="s">
+        <v>20</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="X2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="Y2" s="9" t="s">
+      <c r="X2" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="Y2" s="29" t="s">
+        <v>25</v>
+      </c>
       <c r="Z2" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC2" s="21" t="s">
         <v>28</v>
       </c>
+      <c r="AC2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A3" s="12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C3" s="13">
         <v>101</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="15">
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
         <v>1000000</v>
       </c>
-      <c r="G3" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="H3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
@@ -1695,63 +1710,66 @@
       <c r="Q3" s="13"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
-      <c r="T3" s="13">
+      <c r="T3" s="13"/>
+      <c r="U3" s="13">
         <v>1.4</v>
       </c>
-      <c r="U3" s="13">
+      <c r="V3" s="13">
         <v>280</v>
       </c>
-      <c r="V3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W3" s="13">
-        <v>0</v>
-      </c>
-      <c r="X3" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="13" t="s">
-        <v>35</v>
+      <c r="W3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="30">
+        <v>0</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB3" s="13">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC3" s="13">
         <v>1</v>
       </c>
-      <c r="AC3" s="32" t="s">
-        <v>38</v>
+      <c r="AD3" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A4" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C4" s="13">
         <v>101</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="18">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19">
         <v>1000000</v>
       </c>
-      <c r="G4" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
@@ -1762,142 +1780,148 @@
       <c r="Q4" s="17"/>
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
-      <c r="T4" s="17">
+      <c r="T4" s="17"/>
+      <c r="U4" s="17">
         <v>1.4</v>
       </c>
-      <c r="U4" s="17">
+      <c r="V4" s="17">
         <v>280</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W4" s="17">
-        <v>0</v>
-      </c>
-      <c r="X4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="17" t="s">
-        <v>35</v>
+      <c r="W4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="32">
+        <v>0</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB4" s="17">
+        <v>38</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC4" s="17">
         <v>1</v>
       </c>
-      <c r="AC4" s="33" t="s">
-        <v>38</v>
+      <c r="AD4" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A5" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C5" s="13">
         <v>101</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="15">
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="14">
+        <v>0</v>
+      </c>
+      <c r="G5" s="15">
         <v>1000000</v>
       </c>
-      <c r="G5" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="H5" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13">
+        <v>13</v>
+      </c>
+      <c r="M5" s="13">
+        <v>42</v>
+      </c>
+      <c r="N5" s="13">
+        <v>43</v>
+      </c>
+      <c r="O5" s="13">
         <v>44</v>
       </c>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13">
-        <v>13</v>
-      </c>
-      <c r="L5" s="13">
-        <v>42</v>
-      </c>
-      <c r="M5" s="13">
-        <v>43</v>
-      </c>
-      <c r="N5" s="13">
-        <v>44</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="P5" s="13">
         <v>45</v>
       </c>
-      <c r="P5" s="13">
+      <c r="Q5" s="13">
         <v>46</v>
       </c>
-      <c r="Q5" s="13"/>
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
-      <c r="T5" s="13">
+      <c r="T5" s="13"/>
+      <c r="U5" s="13">
         <v>1.4</v>
       </c>
-      <c r="U5" s="13">
+      <c r="V5" s="13">
         <v>280</v>
       </c>
-      <c r="V5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0</v>
-      </c>
-      <c r="X5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="13" t="s">
-        <v>35</v>
+      <c r="W5" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="30">
+        <v>0</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB5" s="13">
+        <v>38</v>
+      </c>
+      <c r="AB5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC5" s="13">
         <v>1</v>
       </c>
-      <c r="AC5" s="32" t="s">
-        <v>38</v>
+      <c r="AD5" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:29">
+    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A6" s="12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="13">
         <v>101</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="15">
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="14">
+        <v>0</v>
+      </c>
+      <c r="G6" s="15">
         <v>1000000</v>
       </c>
-      <c r="G6" s="13" t="s">
-        <v>32</v>
-      </c>
       <c r="H6" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>35</v>
+      </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1908,217 +1932,226 @@
       <c r="Q6" s="13"/>
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
-      <c r="T6" s="13">
+      <c r="T6" s="13"/>
+      <c r="U6" s="13">
         <v>1.4</v>
       </c>
-      <c r="U6" s="13">
+      <c r="V6" s="13">
         <v>280</v>
       </c>
-      <c r="V6" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W6" s="13">
-        <v>0</v>
-      </c>
-      <c r="X6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="13" t="s">
-        <v>35</v>
+      <c r="W6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="30">
+        <v>0</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB6" s="13">
+        <v>38</v>
+      </c>
+      <c r="AB6" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC6" s="13">
         <v>1</v>
       </c>
-      <c r="AC6" s="32" t="s">
-        <v>38</v>
+      <c r="AD6" s="31" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:29">
+    <row r="7" ht="22.5" customHeight="1" spans="1:30">
       <c r="A7" s="16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C7" s="13">
         <v>101</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="19">
         <v>1000000</v>
       </c>
-      <c r="G7" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="H7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="17"/>
+        <v>34</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="J7" s="17"/>
-      <c r="K7" s="17">
+      <c r="K7" s="17"/>
+      <c r="L7" s="17">
         <v>617</v>
       </c>
-      <c r="L7" s="17">
+      <c r="M7" s="17">
         <v>619</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>620</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="17">
         <v>621</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="17">
         <v>622</v>
       </c>
-      <c r="P7" s="17"/>
       <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
-      <c r="T7" s="17">
+      <c r="T7" s="17"/>
+      <c r="U7" s="17">
         <v>1.4</v>
       </c>
-      <c r="U7" s="17">
+      <c r="V7" s="17">
         <v>280</v>
       </c>
-      <c r="V7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W7" s="17">
-        <v>0</v>
-      </c>
-      <c r="X7" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="17" t="s">
-        <v>35</v>
+      <c r="W7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="32">
+        <v>0</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB7" s="17">
+        <v>38</v>
+      </c>
+      <c r="AB7" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC7" s="17">
         <v>1</v>
       </c>
-      <c r="AC7" s="33" t="s">
-        <v>38</v>
+      <c r="AD7" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:29">
+    <row r="8" ht="22.5" customHeight="1" spans="1:30">
       <c r="A8" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C8" s="13">
         <v>101</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18">
-        <v>0</v>
-      </c>
-      <c r="F8" s="19">
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="19">
         <v>1000000</v>
       </c>
-      <c r="G8" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="H8" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="I8" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" s="13"/>
-      <c r="K8" s="13">
+      <c r="K8" s="13"/>
+      <c r="L8" s="13">
         <v>436</v>
       </c>
-      <c r="L8" s="13">
+      <c r="M8" s="13">
         <v>437</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>438</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <v>439</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="13">
         <v>440</v>
       </c>
-      <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="T8" s="17">
+      <c r="T8" s="13"/>
+      <c r="U8" s="17">
         <v>1.4</v>
       </c>
-      <c r="U8" s="17">
+      <c r="V8" s="17">
         <v>280</v>
       </c>
-      <c r="V8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W8" s="17">
-        <v>0</v>
-      </c>
-      <c r="X8" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="17" t="s">
-        <v>35</v>
+      <c r="W8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="32">
+        <v>0</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB8" s="17">
+        <v>38</v>
+      </c>
+      <c r="AB8" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC8" s="17">
         <v>1</v>
       </c>
-      <c r="AC8" s="33" t="s">
-        <v>38</v>
+      <c r="AD8" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:29">
+    <row r="9" ht="22.5" customHeight="1" spans="1:30">
       <c r="A9" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C9" s="13">
         <v>101</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="19">
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
         <v>1000000</v>
       </c>
-      <c r="G9" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="H9" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="13"/>
+        <v>34</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>57</v>
+      </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
@@ -2129,35 +2162,36 @@
       <c r="Q9" s="13"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
-      <c r="T9" s="17">
+      <c r="T9" s="13"/>
+      <c r="U9" s="17">
         <v>1.4</v>
       </c>
-      <c r="U9" s="17">
+      <c r="V9" s="17">
         <v>280</v>
       </c>
-      <c r="V9" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="W9" s="17">
-        <v>0</v>
-      </c>
-      <c r="X9" s="31">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="17" t="s">
-        <v>35</v>
+      <c r="W9" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="X9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="32">
+        <v>0</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB9" s="17">
+        <v>38</v>
+      </c>
+      <c r="AB9" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC9" s="17">
         <v>1</v>
       </c>
-      <c r="AC9" s="33" t="s">
-        <v>38</v>
+      <c r="AD9" s="33" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="13395"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="interact" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
   <si>
     <t>主键</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>UnitName</t>
+  </si>
+  <si>
+    <t>#Loc{}</t>
   </si>
   <si>
     <t>Unlocking</t>
@@ -1499,7 +1502,7 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1590,29 +1593,31 @@
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="9"/>
+      <c r="B2" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="C2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L2" s="9">
         <v>1</v>
@@ -1636,48 +1641,48 @@
         <v>7</v>
       </c>
       <c r="S2" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="T2" s="27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Y2" s="29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Z2" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AA2" s="9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AD2" s="24" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A3" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C3" s="13">
         <v>101</v>
@@ -1686,7 +1691,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
@@ -1695,10 +1700,10 @@
         <v>1000000</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J3" s="13"/>
       <c r="K3" s="13"/>
@@ -1718,7 +1723,7 @@
         <v>280</v>
       </c>
       <c r="W3" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X3" s="13">
         <v>0</v>
@@ -1727,27 +1732,27 @@
         <v>0</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC3" s="13">
         <v>1</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A4" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C4" s="13">
         <v>101</v>
@@ -1756,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1765,10 +1770,10 @@
         <v>1000000</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J4" s="17"/>
       <c r="K4" s="17"/>
@@ -1788,7 +1793,7 @@
         <v>280</v>
       </c>
       <c r="W4" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X4" s="17">
         <v>0</v>
@@ -1797,27 +1802,27 @@
         <v>0</v>
       </c>
       <c r="Z4" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC4" s="17">
         <v>1</v>
       </c>
       <c r="AD4" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A5" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C5" s="13">
         <v>101</v>
@@ -1826,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -1835,10 +1840,10 @@
         <v>1000000</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13"/>
@@ -1870,7 +1875,7 @@
         <v>280</v>
       </c>
       <c r="W5" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X5" s="13">
         <v>0</v>
@@ -1879,27 +1884,27 @@
         <v>0</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="13">
         <v>1</v>
       </c>
       <c r="AD5" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
       <c r="A6" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C6" s="13">
         <v>101</v>
@@ -1908,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="14">
         <v>0</v>
@@ -1917,10 +1922,10 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13"/>
@@ -1940,7 +1945,7 @@
         <v>280</v>
       </c>
       <c r="W6" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X6" s="13">
         <v>0</v>
@@ -1949,27 +1954,27 @@
         <v>0</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC6" s="13">
         <v>1</v>
       </c>
       <c r="AD6" s="31" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" spans="1:30">
       <c r="A7" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C7" s="13">
         <v>101</v>
@@ -1978,7 +1983,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1987,10 +1992,10 @@
         <v>1000000</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J7" s="17"/>
       <c r="K7" s="17"/>
@@ -2020,7 +2025,7 @@
         <v>280</v>
       </c>
       <c r="W7" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X7" s="17">
         <v>0</v>
@@ -2029,27 +2034,27 @@
         <v>0</v>
       </c>
       <c r="Z7" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC7" s="17">
         <v>1</v>
       </c>
       <c r="AD7" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" ht="22.5" customHeight="1" spans="1:30">
       <c r="A8" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13">
         <v>101</v>
@@ -2058,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -2067,10 +2072,10 @@
         <v>1000000</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J8" s="13"/>
       <c r="K8" s="13"/>
@@ -2100,7 +2105,7 @@
         <v>280</v>
       </c>
       <c r="W8" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X8" s="17">
         <v>0</v>
@@ -2109,27 +2114,27 @@
         <v>0</v>
       </c>
       <c r="Z8" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC8" s="17">
         <v>1</v>
       </c>
       <c r="AD8" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" ht="22.5" customHeight="1" spans="1:30">
       <c r="A9" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C9" s="13">
         <v>101</v>
@@ -2138,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2147,10 +2152,10 @@
         <v>1000000</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J9" s="13"/>
       <c r="K9" s="13"/>
@@ -2170,7 +2175,7 @@
         <v>280</v>
       </c>
       <c r="W9" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="X9" s="17">
         <v>0</v>
@@ -2179,19 +2184,19 @@
         <v>0</v>
       </c>
       <c r="Z9" s="17" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AC9" s="17">
         <v>1</v>
       </c>
       <c r="AD9" s="33" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -197,10 +197,10 @@
     <t>models/heroes/bristleback/bristleback.vmdl</t>
   </si>
   <si>
-    <t>npc_interact_process_monster_nian</t>
-  </si>
-  <si>
-    <t>NPC 6</t>
+    <t>npc_interact_soulstone_challenge</t>
+  </si>
+  <si>
+    <t>魂石挑战</t>
   </si>
   <si>
     <t>models/items/courier/nian_courier/nian_courier.vmdl</t>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:AD9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2140,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>34</v>

--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12345"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="interact" sheetId="1" r:id="rId1"/>
@@ -1501,8 +1501,8 @@
   <sheetPr/>
   <dimension ref="A1:AD9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2140,7 +2140,7 @@
         <v>101</v>
       </c>
       <c r="D9" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
         <v>34</v>

--- a/excels/units/interact.xlsx
+++ b/excels/units/interact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12345"/>
   </bookViews>
   <sheets>
     <sheet name="interact" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="63">
   <si>
     <t>主键</t>
   </si>
@@ -50,6 +50,9 @@
     <t>模型</t>
   </si>
   <si>
+    <t>头顶特效</t>
+  </si>
+  <si>
     <t>模型尺寸</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>Model</t>
   </si>
   <si>
+    <t>overhead_effect</t>
+  </si>
+  <si>
     <t>Creature[{]</t>
   </si>
   <si>
@@ -140,6 +146,9 @@
     <t>models/heroes/shopkeeper_dire/shopkeeper_dire.vmdl</t>
   </si>
   <si>
+    <t>particles/ui/npc_title/npc_1.vpcf</t>
+  </si>
+  <si>
     <t>public_npc_interact</t>
   </si>
   <si>
@@ -162,6 +171,9 @@
   </si>
   <si>
     <t>models/heroes/brewmaster/brewmaster_voidspirit.vmdl</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>npc_interact_archive_equip</t>
@@ -1499,10 +1511,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AD9"/>
+  <dimension ref="A1:AE9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="U3" sqref="U3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1515,25 +1527,25 @@
     <col min="6" max="6" width="10.5083333333333" customWidth="1"/>
     <col min="7" max="7" width="16.175" customWidth="1"/>
     <col min="8" max="8" width="21.675" customWidth="1"/>
-    <col min="9" max="9" width="50.625" customWidth="1"/>
-    <col min="10" max="10" width="14.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="23.8416666666667" customWidth="1"/>
-    <col min="12" max="16" width="10.0083333333333" customWidth="1"/>
-    <col min="17" max="18" width="9.00833333333333" customWidth="1"/>
-    <col min="19" max="20" width="3.625" customWidth="1"/>
-    <col min="21" max="21" width="15.175" customWidth="1"/>
-    <col min="22" max="22" width="21.0083333333333" customWidth="1"/>
-    <col min="23" max="23" width="21.675" customWidth="1"/>
-    <col min="24" max="24" width="21.8416666666667" customWidth="1"/>
-    <col min="25" max="25" width="24.3416666666667" customWidth="1"/>
-    <col min="26" max="26" width="32.5083333333333" customWidth="1"/>
-    <col min="27" max="27" width="29.0083333333333" customWidth="1"/>
-    <col min="28" max="28" width="14.8416666666667" customWidth="1"/>
-    <col min="29" max="29" width="13.175" customWidth="1"/>
-    <col min="30" max="30" width="27.0083333333333" customWidth="1"/>
+    <col min="9" max="10" width="50.625" customWidth="1"/>
+    <col min="11" max="11" width="14.3416666666667" customWidth="1"/>
+    <col min="12" max="12" width="23.8416666666667" customWidth="1"/>
+    <col min="13" max="17" width="10.0083333333333" customWidth="1"/>
+    <col min="18" max="19" width="9.00833333333333" customWidth="1"/>
+    <col min="20" max="21" width="3.625" customWidth="1"/>
+    <col min="22" max="22" width="15.175" customWidth="1"/>
+    <col min="23" max="23" width="21.0083333333333" customWidth="1"/>
+    <col min="24" max="24" width="21.675" customWidth="1"/>
+    <col min="25" max="25" width="21.8416666666667" customWidth="1"/>
+    <col min="26" max="26" width="24.3416666666667" customWidth="1"/>
+    <col min="27" max="27" width="32.5083333333333" customWidth="1"/>
+    <col min="28" max="28" width="29.0083333333333" customWidth="1"/>
+    <col min="29" max="29" width="14.8416666666667" customWidth="1"/>
+    <col min="30" max="30" width="13.175" customWidth="1"/>
+    <col min="31" max="31" width="27.0083333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1557,132 +1569,138 @@
       <c r="I1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="21"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="V1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="22"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="5" t="s">
+        <v>8</v>
+      </c>
       <c r="W1" s="5"/>
-      <c r="X1" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y1" s="28" t="s">
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="5" t="s">
+      <c r="Z1" s="28" t="s">
         <v>10</v>
       </c>
       <c r="AA1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="AB1" s="5"/>
+      <c r="AB1" s="5" t="s">
+        <v>12</v>
+      </c>
       <c r="AC1" s="5"/>
-      <c r="AD1" s="20"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="20"/>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="10"/>
       <c r="G2" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="9">
+        <v>21</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="9">
         <v>1</v>
       </c>
-      <c r="M2" s="9">
+      <c r="N2" s="9">
         <v>2</v>
       </c>
-      <c r="N2" s="9">
+      <c r="O2" s="9">
         <v>3</v>
       </c>
-      <c r="O2" s="9">
+      <c r="P2" s="9">
         <v>4</v>
       </c>
-      <c r="P2" s="9">
+      <c r="Q2" s="9">
         <v>5</v>
       </c>
-      <c r="Q2" s="24">
+      <c r="R2" s="24">
         <v>6</v>
       </c>
-      <c r="R2" s="25">
+      <c r="S2" s="25">
         <v>7</v>
       </c>
-      <c r="S2" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="T2" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="9" t="s">
-        <v>22</v>
+      <c r="T2" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="U2" s="27" t="s">
+        <v>23</v>
       </c>
       <c r="V2" s="9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="W2" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="X2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="9" t="s">
+      <c r="Y2" s="9" t="s">
         <v>27</v>
       </c>
+      <c r="Z2" s="29" t="s">
+        <v>28</v>
+      </c>
       <c r="AA2" s="9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB2" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AC2" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="AD2" s="24" t="s">
         <v>31</v>
       </c>
+      <c r="AD2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="3" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C3" s="13">
         <v>101</v>
@@ -1691,7 +1709,7 @@
         <v>1</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F3" s="14">
         <v>0</v>
@@ -1700,12 +1718,14 @@
         <v>1000000</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
@@ -1716,43 +1736,44 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="13">
+      <c r="U3" s="13"/>
+      <c r="V3" s="13">
         <v>1.4</v>
       </c>
-      <c r="V3" s="13">
+      <c r="W3" s="13">
         <v>280</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X3" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="13" t="s">
-        <v>38</v>
+      <c r="X3" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="30">
+        <v>0</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC3" s="13">
+        <v>42</v>
+      </c>
+      <c r="AC3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD3" s="13">
         <v>1</v>
       </c>
-      <c r="AD3" s="31" t="s">
-        <v>41</v>
+      <c r="AE3" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="4" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A4" s="16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C4" s="13">
         <v>101</v>
@@ -1761,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F4" s="18">
         <v>0</v>
@@ -1770,12 +1791,14 @@
         <v>1000000</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="17"/>
+        <v>47</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K4" s="17"/>
       <c r="L4" s="17"/>
       <c r="M4" s="17"/>
@@ -1786,43 +1809,44 @@
       <c r="R4" s="17"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
-      <c r="U4" s="17">
+      <c r="U4" s="17"/>
+      <c r="V4" s="17">
         <v>1.4</v>
       </c>
-      <c r="V4" s="17">
+      <c r="W4" s="17">
         <v>280</v>
       </c>
-      <c r="W4" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X4" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="17" t="s">
-        <v>38</v>
+      <c r="X4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y4" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="32">
+        <v>0</v>
       </c>
       <c r="AA4" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB4" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC4" s="17">
+        <v>42</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD4" s="17">
         <v>1</v>
       </c>
-      <c r="AD4" s="33" t="s">
-        <v>41</v>
+      <c r="AE4" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="5" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A5" s="12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C5" s="13">
         <v>101</v>
@@ -1831,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" s="14">
         <v>0</v>
@@ -1840,71 +1864,74 @@
         <v>1000000</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="13"/>
+        <v>51</v>
+      </c>
+      <c r="J5" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K5" s="13"/>
-      <c r="L5" s="13">
+      <c r="L5" s="13"/>
+      <c r="M5" s="13">
         <v>13</v>
       </c>
-      <c r="M5" s="13">
+      <c r="N5" s="13">
         <v>42</v>
       </c>
-      <c r="N5" s="13">
+      <c r="O5" s="13">
         <v>43</v>
       </c>
-      <c r="O5" s="13">
+      <c r="P5" s="13">
         <v>44</v>
       </c>
-      <c r="P5" s="13">
+      <c r="Q5" s="13">
         <v>45</v>
       </c>
-      <c r="Q5" s="13">
+      <c r="R5" s="13">
         <v>46</v>
       </c>
-      <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="13">
+      <c r="U5" s="13"/>
+      <c r="V5" s="13">
         <v>1.4</v>
       </c>
-      <c r="V5" s="13">
+      <c r="W5" s="13">
         <v>280</v>
       </c>
-      <c r="W5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>38</v>
+      <c r="X5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="30">
+        <v>0</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB5" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC5" s="13">
+        <v>42</v>
+      </c>
+      <c r="AC5" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD5" s="13">
         <v>1</v>
       </c>
-      <c r="AD5" s="31" t="s">
-        <v>41</v>
+      <c r="AE5" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:30">
+    <row r="6" s="3" customFormat="1" ht="22.5" customHeight="1" spans="1:31">
       <c r="A6" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C6" s="13">
         <v>101</v>
@@ -1913,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F6" s="14">
         <v>0</v>
@@ -1922,12 +1949,14 @@
         <v>1000000</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="13"/>
+        <v>38</v>
+      </c>
+      <c r="J6" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -1938,43 +1967,44 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="13">
+      <c r="U6" s="13"/>
+      <c r="V6" s="13">
         <v>1.4</v>
       </c>
-      <c r="V6" s="13">
+      <c r="W6" s="13">
         <v>280</v>
       </c>
-      <c r="W6" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X6" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="30">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="13" t="s">
-        <v>38</v>
+      <c r="X6" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="30">
+        <v>0</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB6" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC6" s="13">
+        <v>42</v>
+      </c>
+      <c r="AC6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD6" s="13">
         <v>1</v>
       </c>
-      <c r="AD6" s="31" t="s">
-        <v>41</v>
+      <c r="AE6" s="31" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="7" ht="22.5" customHeight="1" spans="1:30">
+    <row r="7" ht="22.5" customHeight="1" spans="1:31">
       <c r="A7" s="16" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C7" s="13">
         <v>101</v>
@@ -1983,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F7" s="18">
         <v>0</v>
@@ -1992,69 +2022,72 @@
         <v>1000000</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="17"/>
+        <v>56</v>
+      </c>
+      <c r="J7" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K7" s="17"/>
-      <c r="L7" s="17">
+      <c r="L7" s="17"/>
+      <c r="M7" s="17">
         <v>617</v>
       </c>
-      <c r="M7" s="17">
+      <c r="N7" s="17">
         <v>619</v>
       </c>
-      <c r="N7" s="17">
+      <c r="O7" s="17">
         <v>620</v>
       </c>
-      <c r="O7" s="17">
+      <c r="P7" s="17">
         <v>621</v>
       </c>
-      <c r="P7" s="17">
+      <c r="Q7" s="17">
         <v>622</v>
       </c>
-      <c r="Q7" s="17"/>
       <c r="R7" s="17"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
-      <c r="U7" s="17">
+      <c r="U7" s="17"/>
+      <c r="V7" s="17">
         <v>1.4</v>
       </c>
-      <c r="V7" s="17">
+      <c r="W7" s="17">
         <v>280</v>
       </c>
-      <c r="W7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="17" t="s">
-        <v>38</v>
+      <c r="X7" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y7" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="32">
+        <v>0</v>
       </c>
       <c r="AA7" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC7" s="17">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD7" s="17">
         <v>1</v>
       </c>
-      <c r="AD7" s="33" t="s">
-        <v>41</v>
+      <c r="AE7" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="8" ht="22.5" customHeight="1" spans="1:30">
+    <row r="8" ht="22.5" customHeight="1" spans="1:31">
       <c r="A8" s="16" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C8" s="13">
         <v>101</v>
@@ -2063,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F8" s="18">
         <v>0</v>
@@ -2072,69 +2105,72 @@
         <v>1000000</v>
       </c>
       <c r="H8" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="13"/>
+        <v>59</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="13"/>
-      <c r="L8" s="13">
+      <c r="L8" s="13"/>
+      <c r="M8" s="13">
         <v>436</v>
       </c>
-      <c r="M8" s="13">
+      <c r="N8" s="13">
         <v>437</v>
       </c>
-      <c r="N8" s="13">
+      <c r="O8" s="13">
         <v>438</v>
       </c>
-      <c r="O8" s="13">
+      <c r="P8" s="13">
         <v>439</v>
       </c>
-      <c r="P8" s="13">
+      <c r="Q8" s="13">
         <v>440</v>
       </c>
-      <c r="Q8" s="13"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="17">
+      <c r="U8" s="13"/>
+      <c r="V8" s="17">
         <v>1.4</v>
       </c>
-      <c r="V8" s="17">
+      <c r="W8" s="17">
         <v>280</v>
       </c>
-      <c r="W8" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="17" t="s">
-        <v>38</v>
+      <c r="X8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y8" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="32">
+        <v>0</v>
       </c>
       <c r="AA8" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC8" s="17">
+        <v>42</v>
+      </c>
+      <c r="AC8" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD8" s="17">
         <v>1</v>
       </c>
-      <c r="AD8" s="33" t="s">
-        <v>41</v>
+      <c r="AE8" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
-    <row r="9" ht="22.5" customHeight="1" spans="1:30">
+    <row r="9" ht="22.5" customHeight="1" spans="1:31">
       <c r="A9" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="C9" s="13">
         <v>101</v>
@@ -2143,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9" s="18">
         <v>0</v>
@@ -2152,12 +2188,14 @@
         <v>1000000</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="J9" s="13"/>
+        <v>62</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="K9" s="13"/>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
@@ -2168,35 +2206,36 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="17">
+      <c r="U9" s="13"/>
+      <c r="V9" s="17">
         <v>1.4</v>
       </c>
-      <c r="V9" s="17">
+      <c r="W9" s="17">
         <v>280</v>
       </c>
-      <c r="W9" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="X9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="32">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="17" t="s">
-        <v>38</v>
+      <c r="X9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y9" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="32">
+        <v>0</v>
       </c>
       <c r="AA9" s="17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AB9" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC9" s="17">
+        <v>42</v>
+      </c>
+      <c r="AC9" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD9" s="17">
         <v>1</v>
       </c>
-      <c r="AD9" s="33" t="s">
-        <v>41</v>
+      <c r="AE9" s="33" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
